--- a/api/templates/template1.xlsx
+++ b/api/templates/template1.xlsx
@@ -190,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,19 +200,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -220,11 +220,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -247,7 +243,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -402,7 +398,7 @@
       <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="6"/>

--- a/api/templates/template1.xlsx
+++ b/api/templates/template1.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Кол-во продаж с учетом возвратов товаров</t>
   </si>
   <si>
-    <t xml:space="preserve">К перечислению Продавцу за реализованный Товар с учетом возвратов товаров</t>
+    <t xml:space="preserve">К перечислению Продавцу за реализованный Товар с учетом возвратов товаров и комиссии WB</t>
   </si>
   <si>
     <t xml:space="preserve">Стоимость логистики</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Итого к перечислению Продавцу за текущий период с учетом логистики</t>
   </si>
   <si>
-    <t xml:space="preserve">Возвращенная себестоимость реализованного товара</t>
+    <t xml:space="preserve">Cебестоимость реализованного товара</t>
   </si>
   <si>
     <t xml:space="preserve">Процент возврата</t>
@@ -242,8 +242,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,7 +313,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="85.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
